--- a/Datasets/results_opt_2.xlsx
+++ b/Datasets/results_opt_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\PYFCS\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331650D-3D5A-4D2E-B71A-ED66C7A2D4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B243D-9F1C-426E-BA84-A12350F568B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57705" yWindow="330" windowWidth="14610" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25425" yWindow="1155" windowWidth="14400" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,115 +37,112 @@
     <t>A1.png</t>
   </si>
   <si>
-    <t>{'D2': 1.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 1.0}</t>
+    <t>[('D2', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('A1', 1.0)]</t>
   </si>
   <si>
     <t>A2.png</t>
   </si>
   <si>
-    <t>{'C3': 0.631, 'C2': 0.369}</t>
-  </si>
-  <si>
-    <t>{'A2': 0.767, 'B2': 0.233}</t>
-  </si>
-  <si>
-    <t>{'D3': 1.0}</t>
+    <t>[('C3', 0.631), ('C2', 0.369)]</t>
+  </si>
+  <si>
+    <t>[('A2', 0.767), ('B2', 0.233)]</t>
+  </si>
+  <si>
+    <t>[('D3', 1.0)]</t>
   </si>
   <si>
     <t>A3.png</t>
   </si>
   <si>
-    <t>{'C3': 1.0}</t>
-  </si>
-  <si>
-    <t>{'A3': 1.0}</t>
-  </si>
-  <si>
-    <t>{'C3': 0.764, 'C2': 0.229, 'C4': 0.007}</t>
+    <t>[('C3', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('A3', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('C3', 0.764), ('C2', 0.229), ('C4', 0.007)]</t>
   </si>
   <si>
     <t>A3_5.png</t>
   </si>
   <si>
-    <t>{'A4': 0.508, 'C4': 0.358, 'C3': 0.134}</t>
-  </si>
-  <si>
-    <t>{'A3.5': 0.594, 'B3': 0.267, 'B4': 0.139}</t>
-  </si>
-  <si>
-    <t>{'C4': 0.773, 'C3': 0.114, 'A4': 0.113}</t>
+    <t>[('A4', 0.508), ('C4', 0.358), ('C3', 0.134)]</t>
+  </si>
+  <si>
+    <t>[('A3_5', 0.594), ('B3', 0.267), ('B4', 0.139)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.773), ('C3', 0.114), ('A4', 0.113)]</t>
   </si>
   <si>
     <t>A4.png</t>
   </si>
   <si>
-    <t>{'C4': 1.0}</t>
-  </si>
-  <si>
-    <t>{'A4': 0.799, 'C3': 0.201}</t>
+    <t>[('C4', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('A4', 0.799), ('C3', 0.201)]</t>
   </si>
   <si>
     <t>B1.png</t>
   </si>
   <si>
-    <t>{'B1': 1.0}</t>
+    <t>[('B1', 1.0)]</t>
   </si>
   <si>
     <t>B2.png</t>
   </si>
   <si>
-    <t>{'C2': 1.0}</t>
-  </si>
-  <si>
-    <t>{'B2': 1.0}</t>
+    <t>[('C2', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('B2', 1.0)]</t>
   </si>
   <si>
     <t>B3.png</t>
   </si>
   <si>
-    <t>{'C3': 0.721, 'A3.5': 0.279}</t>
-  </si>
-  <si>
-    <t>{'B3': 1.0}</t>
-  </si>
-  <si>
-    <t>{'C3': 0.701, 'C4': 0.222, 'A4': 0.077}</t>
+    <t>[('C3', 0.721), ('A3_5', 0.279)]</t>
+  </si>
+  <si>
+    <t>[('B3', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('C3', 0.701), ('C4', 0.222), ('A4', 0.077)]</t>
   </si>
   <si>
     <t>B4.png</t>
   </si>
   <si>
-    <t>{'B4': 0.45, 'A4': 0.232, 'C3': 0.169, 'A3.5': 0.15}</t>
-  </si>
-  <si>
-    <t>{'B4': 1.0}</t>
-  </si>
-  <si>
-    <t>{'C4': 0.505, 'A4': 0.308, 'C3': 0.187}</t>
+    <t>[('B4', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.505), ('A4', 0.308), ('C3', 0.187)]</t>
   </si>
   <si>
     <t>C1.png</t>
   </si>
   <si>
-    <t>{'C1': 1.0}</t>
+    <t>[('C1', 1.0)]</t>
   </si>
   <si>
     <t>C2.png</t>
   </si>
   <si>
-    <t>{'C4': 0.656, 'C3': 0.344}</t>
-  </si>
-  <si>
-    <t>{'C4': 0.649, 'C3': 0.351}</t>
+    <t>[('C4', 0.656), ('C3', 0.344)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.649), ('C3', 0.351)]</t>
   </si>
   <si>
     <t>C3.png</t>
   </si>
   <si>
-    <t>{'C3': 0.641, 'D4': 0.359}</t>
+    <t>[('C3', 0.641), ('D4', 0.359)]</t>
   </si>
   <si>
     <t>C4.png</t>
@@ -154,37 +151,40 @@
     <t>D2.png</t>
   </si>
   <si>
-    <t>{'C3': 0.384, 'D3': 0.249, 'C2': 0.185, 'C4': 0.182}</t>
-  </si>
-  <si>
-    <t>{'D2': 0.996, 'C1': 0.004}</t>
-  </si>
-  <si>
-    <t>{'D3': 0.91, 'C4': 0.09}</t>
+    <t>[('D2', 0.996), ('C1', 0.004)]</t>
+  </si>
+  <si>
+    <t>[('D3', 0.91), ('C4', 0.09)]</t>
   </si>
   <si>
     <t>D3.png</t>
   </si>
   <si>
-    <t>{'C3': 0.525, 'C4': 0.342, 'D3': 0.133}</t>
-  </si>
-  <si>
-    <t>{'D3': 0.89, 'C2': 0.11}</t>
-  </si>
-  <si>
-    <t>{'C4': 0.514, 'D3': 0.312, 'C3': 0.174}</t>
+    <t>[('C3', 0.525), ('C4', 0.342), ('D3', 0.133)]</t>
+  </si>
+  <si>
+    <t>[('D3', 0.89), ('C2', 0.11)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.514), ('D3', 0.312), ('C3', 0.174)]</t>
   </si>
   <si>
     <t>D4.png</t>
   </si>
   <si>
-    <t>{'C3': 0.867, 'C4': 0.133}</t>
-  </si>
-  <si>
-    <t>{'D4': 1.0}</t>
-  </si>
-  <si>
-    <t>{'C4': 0.716, 'C3': 0.284}</t>
+    <t>[('C3', 0.867), ('C4', 0.133)]</t>
+  </si>
+  <si>
+    <t>[('D4', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.716), ('C3', 0.284)]</t>
+  </si>
+  <si>
+    <t>[('B4', 0.45), ('A4', 0.232), ('C3', 0.169)]</t>
+  </si>
+  <si>
+    <t>[('C3', 0.384), ('D3', 0.249), ('C2', 0.185)]</t>
   </si>
 </sst>
 </file>
@@ -550,15 +550,14 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="44.36328125" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -692,24 +691,24 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -717,27 +716,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -745,7 +744,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -759,44 +758,44 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
